--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Desktop\people_analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Desktop\github\people_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9EDF8-7A5E-4605-BF28-D9B11E9AE8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C00478-C9CD-48FA-81CC-433BCEF200F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3067" yWindow="2977" windowWidth="21601" windowHeight="11423" activeTab="3" xr2:uid="{6FD63EB2-36CF-4BF9-9A20-493A9EBE2625}"/>
+    <workbookView xWindow="7200" yWindow="3067" windowWidth="21600" windowHeight="11423" activeTab="3" xr2:uid="{6FD63EB2-36CF-4BF9-9A20-493A9EBE2625}"/>
   </bookViews>
   <sheets>
     <sheet name="dictonary" sheetId="2" r:id="rId1"/>
@@ -5895,7 +5895,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5905,6 +5905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5936,7 +5942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5984,6 +5990,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7706,7 +7715,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:F17"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -8069,7 +8078,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -8128,10 +8137,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB34F33-AFC3-4381-B0BC-E44F58A2780F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="A75:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8235,7 +8244,7 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -8252,7 +8261,7 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -8269,7 +8278,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -8286,7 +8295,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -8303,7 +8312,7 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -8320,7 +8329,7 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8337,7 +8346,7 @@
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -8354,7 +8363,7 @@
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -8371,7 +8380,7 @@
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -8388,7 +8397,7 @@
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -8405,7 +8414,7 @@
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -8473,7 +8482,7 @@
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -8490,7 +8499,7 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -8507,7 +8516,7 @@
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -8524,7 +8533,7 @@
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -8541,7 +8550,7 @@
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -8895,10 +8904,10 @@
       <c r="A45" s="6">
         <v>13</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -8912,10 +8921,10 @@
       <c r="A46" s="6">
         <v>13</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -8929,10 +8938,10 @@
       <c r="A47" s="6">
         <v>13</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -8946,10 +8955,10 @@
       <c r="A48" s="6">
         <v>13</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -8963,10 +8972,10 @@
       <c r="A49" s="6">
         <v>13</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -8980,10 +8989,10 @@
       <c r="A50" s="6">
         <v>13</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -8997,10 +9006,10 @@
       <c r="A51" s="6">
         <v>13</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -9014,10 +9023,10 @@
       <c r="A52" s="6">
         <v>13</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -9031,10 +9040,10 @@
       <c r="A53" s="6">
         <v>13</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -9306,10 +9315,10 @@
       <c r="B69" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -9323,10 +9332,10 @@
       <c r="B70" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="18" t="s">
         <v>237</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -9340,10 +9349,10 @@
       <c r="B71" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="6" t="s">
@@ -9357,10 +9366,10 @@
       <c r="B72" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="14" t="s">
@@ -9374,10 +9383,10 @@
       <c r="B73" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -9391,10 +9400,10 @@
       <c r="B74" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E74" s="17" t="s">
@@ -9408,10 +9417,10 @@
       <c r="B75" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="16" t="s">
@@ -9425,10 +9434,10 @@
       <c r="B76" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="16" t="s">
@@ -9442,10 +9451,10 @@
       <c r="B77" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="16" t="s">

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Desktop\github\people_analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heeckim\Desktop\github\people_analytics-master\people_analytics-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C00478-C9CD-48FA-81CC-433BCEF200F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C74DFD-0197-448B-A9F2-739DE9E2BCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3067" windowWidth="21600" windowHeight="11423" activeTab="3" xr2:uid="{6FD63EB2-36CF-4BF9-9A20-493A9EBE2625}"/>
+    <workbookView xWindow="32175" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6FD63EB2-36CF-4BF9-9A20-493A9EBE2625}"/>
   </bookViews>
   <sheets>
     <sheet name="dictonary" sheetId="2" r:id="rId1"/>
@@ -6315,19 +6315,19 @@
       <selection pane="bottomLeft" activeCell="G37" sqref="A1:I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.59765625" style="7"/>
-    <col min="3" max="3" width="34.9296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33.1328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" style="7" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" style="7"/>
+    <col min="3" max="3" width="35" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="7" customWidth="1"/>
     <col min="7" max="8" width="49" style="7" customWidth="1"/>
-    <col min="9" max="9" width="72.53125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="20.59765625" style="7"/>
+    <col min="9" max="9" width="72.5703125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="20.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>100</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>3</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -6406,7 +6406,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="144.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>3</v>
       </c>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>3</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>3</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>3</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="196.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="183.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>3</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>3</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>3</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>3</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>3</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>3</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>3</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>3</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="118.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>3</v>
       </c>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>3</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>3</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>3</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>3</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>3</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>3</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>3</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>3</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>3</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>3</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>3</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>3</v>
       </c>
@@ -7629,7 +7629,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>3</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>3</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>3</v>
       </c>
@@ -7718,17 +7718,17 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="11"/>
+    <col min="1" max="1" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>186</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>187</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>187</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>187</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>187</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>187</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>187</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>187</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>187</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>214</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>214</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>214</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>214</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>221</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>221</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>221</v>
       </c>
@@ -8077,18 +8077,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B520CC5-40AE-43F7-A520-4A3C9196D865}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="69" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="11"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>2</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>3</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -8137,22 +8137,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB34F33-AFC3-4381-B0BC-E44F58A2780F}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="E77" sqref="A75:E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="23.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="203.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="203.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>7</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>7</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>7</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>8</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>8</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>8</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>9</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>9</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>9</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>9</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>10</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>10</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>10</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>10</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>10</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>10</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>10</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>10</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>12</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>12</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>12</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>12</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>12</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>13</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>13</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>13</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>13</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>13</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>13</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>13</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>13</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>13</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>14</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>14</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>14</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>14</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>14</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="277.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>15</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="263.64999999999998" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>15</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>15</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="221.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>15</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>16</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>16</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>16</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>16</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>16</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>16</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>17</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>17</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>17</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>17</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>17</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>17</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>17</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>17</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>17</v>
       </c>
